--- a/outputs-HGR-r202/g__Succiniclasticum.xlsx
+++ b/outputs-HGR-r202/g__Succiniclasticum.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__Succiniclasticum sp900315805(reject)</t>
+          <t>s__Succiniclasticum sp900315805</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__Succiniclasticum sp900315805(reject)</t>
+          <t>s__Succiniclasticum sp900315805</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>s__Succiniclasticum sp900315805(reject)</t>
+          <t>s__Succiniclasticum sp900315805</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Succiniclasticum.xlsx
+++ b/outputs-HGR-r202/g__Succiniclasticum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__Succiniclasticum sp900315805</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315805</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__Succiniclasticum sp900315805</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315805</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__Succiniclasticum sp900315805</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315805</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__Succiniclasticum sp900315805</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315805</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -601,6 +626,11 @@
         <v>0.664573084408638</v>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Succiniclasticum sp900315805</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>s__Succiniclasticum sp900315805</t>
         </is>

--- a/outputs-HGR-r202/g__Succiniclasticum.xlsx
+++ b/outputs-HGR-r202/g__Succiniclasticum.xlsx
@@ -920,7 +920,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>s__Succiniclasticum sp900314855</t>
+          <t>s__Succiniclasticum sp900314855(reject)</t>
         </is>
       </c>
     </row>
